--- a/NEW HR/LACIBAL, RYAN.xlsx
+++ b/NEW HR/LACIBAL, RYAN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -271,6 +271,21 @@
   </si>
   <si>
     <t>9/26,27/2023</t>
+  </si>
+  <si>
+    <t>10/23-25/2023</t>
+  </si>
+  <si>
+    <t>10/26,27/2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>11/20-24/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1395,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1438,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1502,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1562,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1628,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1691,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1789,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1848,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1913,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1956,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,7 +2031,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2217,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2283,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2341,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2407,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2463,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2538,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2581,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2632,7 +2647,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2703,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2786,7 +2801,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2864,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2915,7 +2930,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K140" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3323,12 +3338,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K138"/>
+  <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A80" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
+      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3489,7 +3504,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>61.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3499,7 +3514,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>63.25</v>
+        <v>62.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5163,13 +5178,15 @@
       <c r="B89" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39">
         <v>2</v>
@@ -5181,10 +5198,10 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B90" s="20"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
@@ -5193,14 +5210,18 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="39"/>
+      <c r="H90" s="39">
+        <v>2</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5218,11 +5239,15 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B92" s="20"/>
+        <v>45291</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="39"/>
+      <c r="D92" s="39">
+        <v>5</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
@@ -5232,11 +5257,13 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="20">
+        <v>12</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
-        <v>45351</v>
+      <c r="A93" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5254,7 +5281,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45382</v>
+        <v>45322</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5271,7 +5298,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45351</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5287,7 +5316,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45382</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5959,20 +5990,52 @@
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="41"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="43"/>
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="43"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
       <c r="I138" s="9"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="15"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="41"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="43"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6022,9 +6085,9 @@
   <dimension ref="A2:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4155" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="4155" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6194,7 +6257,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>122.685</v>
+        <v>114.685</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6524,10 +6587,16 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="39"/>
+      <c r="D24" s="39">
+        <v>3</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13" t="str">
@@ -6537,13 +6606,21 @@
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="40">
+        <v>45243</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="39"/>
+      <c r="D25" s="39">
+        <v>5</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13" t="str">
@@ -6553,7 +6630,9 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
